--- a/dbank-parent/dbank-web/target/dbank-web-1.0-SNAPSHOT/WEB-INF/make/xlsprint/registForm.xlsx
+++ b/dbank-parent/dbank-web/target/dbank-web-1.0-SNAPSHOT/WEB-INF/make/xlsprint/registForm.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\idea\ideaSpace_dynamicDbbank\dbank\dbank-parent\dbank-web\src\main\webapp\WEB-INF\make\xlsprint\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuanh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFB07DE-B6C8-4636-97BD-9A49293A4362}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D9D507-081C-493A-81CA-8F025CB02172}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5300" yWindow="2130" windowWidth="17425" windowHeight="9051" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,309 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>姓名</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+  <si>
+    <t>周佳枫</t>
+  </si>
+  <si>
+    <t>台若</t>
+  </si>
+  <si>
+    <t>苗宁</t>
+  </si>
+  <si>
+    <t>邵之</t>
+  </si>
+  <si>
+    <t>莫以鹏</t>
+  </si>
+  <si>
+    <t>耿璧</t>
+  </si>
+  <si>
+    <t>幸风毅</t>
+  </si>
+  <si>
+    <t>储广</t>
+  </si>
+  <si>
+    <t>霍秀琦</t>
+  </si>
+  <si>
+    <t>百仁</t>
+  </si>
+  <si>
+    <t>侯真</t>
+  </si>
+  <si>
+    <t>崔娅瑗</t>
+  </si>
+  <si>
+    <t>符辰</t>
+  </si>
+  <si>
+    <t>申生</t>
+  </si>
+  <si>
+    <t>褚宁岩</t>
+  </si>
+  <si>
+    <t>孙瑗芳</t>
+  </si>
+  <si>
+    <t>边琼莺</t>
+  </si>
+  <si>
+    <t>夏琛</t>
+  </si>
+  <si>
+    <t>苍芳</t>
+  </si>
+  <si>
+    <t>浦茗欣</t>
+  </si>
+  <si>
+    <t>习杰</t>
+  </si>
+  <si>
+    <t>萧燕</t>
+  </si>
+  <si>
+    <t>何启雄</t>
+  </si>
+  <si>
+    <t>逄政</t>
+  </si>
+  <si>
+    <t>蒙若</t>
+  </si>
+  <si>
+    <t>敖勤飘</t>
+  </si>
+  <si>
+    <t>空璐环</t>
+  </si>
+  <si>
+    <t>郭欣宜</t>
+  </si>
+  <si>
+    <t>嵇利</t>
+  </si>
+  <si>
+    <t>殳世义</t>
+  </si>
+  <si>
+    <t>逯兴元</t>
+  </si>
+  <si>
+    <t>闻嘉</t>
+  </si>
+  <si>
+    <t>柏晨浩</t>
+  </si>
+  <si>
+    <t>公翰旭</t>
+  </si>
+  <si>
+    <t>蒲真</t>
+  </si>
+  <si>
+    <t>乔琴</t>
+  </si>
+  <si>
+    <t>巴纯贞</t>
+  </si>
+  <si>
+    <t>黎康</t>
+  </si>
+  <si>
+    <t>古彩</t>
+  </si>
+  <si>
+    <t>宋玲妍</t>
+  </si>
+  <si>
+    <t>谷爽露</t>
+  </si>
+  <si>
+    <t>聂才政</t>
+  </si>
+  <si>
+    <t>宰真玉</t>
+  </si>
+  <si>
+    <t>崔榕邦</t>
+  </si>
+  <si>
+    <t>闾惠</t>
+  </si>
+  <si>
+    <t>门英</t>
+  </si>
+  <si>
+    <t>郝楠</t>
+  </si>
+  <si>
+    <t>牧辰</t>
+  </si>
+  <si>
+    <t>廉承</t>
+  </si>
+  <si>
+    <t>黎冰雁</t>
+  </si>
+  <si>
+    <t>赵翠</t>
+  </si>
+  <si>
+    <t>许时</t>
+  </si>
+  <si>
+    <t>包伊珠</t>
+  </si>
+  <si>
+    <t>沃岚蓉</t>
+  </si>
+  <si>
+    <t>拓妹宁</t>
+  </si>
+  <si>
+    <t>车坚信</t>
+  </si>
+  <si>
+    <t>孔泽启</t>
+  </si>
+  <si>
+    <t>戈爱</t>
+  </si>
+  <si>
+    <t>木柔</t>
+  </si>
+  <si>
+    <t>五娜澜</t>
+  </si>
+  <si>
+    <t>丘雪</t>
+  </si>
+  <si>
+    <t>厍琬</t>
+  </si>
+  <si>
+    <t>良力</t>
+  </si>
+  <si>
+    <t>南兰兰</t>
+  </si>
+  <si>
+    <t>车泽涛</t>
+  </si>
+  <si>
+    <t>苗永梁</t>
+  </si>
+  <si>
+    <t>钮怡昭</t>
+  </si>
+  <si>
+    <t>谭贵林</t>
+  </si>
+  <si>
+    <t>沈友</t>
+  </si>
+  <si>
+    <t>黎国弘</t>
+  </si>
+  <si>
+    <t>舒心</t>
+  </si>
+  <si>
+    <t>欧建</t>
+  </si>
+  <si>
+    <t>宇羽</t>
+  </si>
+  <si>
+    <t>樊滢</t>
+  </si>
+  <si>
+    <t>唐利宏</t>
+  </si>
+  <si>
+    <t>羊武</t>
+  </si>
+  <si>
+    <t>生文坚</t>
+  </si>
+  <si>
+    <t>陆炎士</t>
+  </si>
+  <si>
+    <t>福达以</t>
+  </si>
+  <si>
+    <t>郏眉仪</t>
+  </si>
+  <si>
+    <t>訾琰</t>
+  </si>
+  <si>
+    <t>钱进辰</t>
+  </si>
+  <si>
+    <t>舒行邦</t>
+  </si>
+  <si>
+    <t>侯月</t>
+  </si>
+  <si>
+    <t>贾海贵</t>
+  </si>
+  <si>
+    <t>岳武</t>
+  </si>
+  <si>
+    <t>吕融</t>
+  </si>
+  <si>
+    <t>岑建</t>
+  </si>
+  <si>
+    <t>柯辉</t>
+  </si>
+  <si>
+    <t>左雪艳</t>
+  </si>
+  <si>
+    <t>厉兰</t>
+  </si>
+  <si>
+    <t>帅菊秀</t>
+  </si>
+  <si>
+    <t>巩翰</t>
+  </si>
+  <si>
+    <t>归祥</t>
+  </si>
+  <si>
+    <t>蔚峰坚</t>
+  </si>
+  <si>
+    <t>花钧</t>
+  </si>
+  <si>
+    <t>郁航风</t>
+  </si>
+  <si>
+    <t>耿钧</t>
+  </si>
+  <si>
+    <t>融航心</t>
+  </si>
+  <si>
+    <t>鞠茂松</t>
+  </si>
+  <si>
+    <t>证件类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -35,19 +335,52 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张三</t>
+    <t>报名时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>…</t>
+    <t>联系方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市丰台区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx活动报名用户名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">姓名
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(此列为用户唯一标识)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +395,37 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -71,7 +435,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -79,32 +443,26 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -386,102 +744,574 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="B1:G102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="50.88671875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="3.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:7" ht="30.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="2:7" ht="26.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.0101010101010099E+17</v>
+      </c>
+      <c r="E3" s="1">
+        <v>43830</v>
+      </c>
+      <c r="F3" s="1">
+        <v>17671469096</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="5" spans="2:7" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="6" spans="2:7" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+    </row>
+    <row r="7" spans="2:7" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="2:3" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
